--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -55,6 +55,51 @@
     <t>Bonus</t>
   </si>
   <si>
+    <t>Planning session</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>18/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting priorities on tasks </t>
+  </si>
+  <si>
+    <t>Learning Vue (reading documentation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 hours </t>
+  </si>
+  <si>
+    <t>19/05/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn the basics </t>
+  </si>
+  <si>
+    <t>Setting up the project</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up vue environment and basic project structure </t>
+  </si>
+  <si>
+    <t>Creating About page</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>Creatimg html element and styling</t>
+  </si>
+  <si>
     <t>Creating a header</t>
   </si>
   <si>
@@ -67,15 +112,6 @@
     <t xml:space="preserve">I had problim with learning router-link whuch I used in header. I spend some tim to learn it. </t>
   </si>
   <si>
-    <t>Learning Vue (reading documentation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 hours </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn the basics </t>
-  </si>
-  <si>
     <t>Creating house page</t>
   </si>
   <si>
@@ -88,18 +124,6 @@
     <t>Creatimg html element, styling and easy js</t>
   </si>
   <si>
-    <t>Setting up the project</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>19/05/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set up vue environment and basic project structure </t>
-  </si>
-  <si>
     <t>Creating a search element</t>
   </si>
   <si>
@@ -115,37 +139,13 @@
     <t>1 hour 15 minutes</t>
   </si>
   <si>
-    <t>Creatimg html element and styling</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixing mistakes </t>
   </si>
   <si>
-    <t>1 hour</t>
-  </si>
-  <si>
     <t>22/05/24</t>
   </si>
   <si>
     <t xml:space="preserve">Fixing misteks when my code stop working, making code more readable </t>
-  </si>
-  <si>
-    <t>Creating About page</t>
-  </si>
-  <si>
-    <t>20/05/2024</t>
-  </si>
-  <si>
-    <t>Planning session</t>
-  </si>
-  <si>
-    <t>30 minutes</t>
-  </si>
-  <si>
-    <t>18/05/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting priorities on tasks </t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -237,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin"/>
@@ -261,6 +261,35 @@
     </border>
     <border>
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
     </border>
     <border>
       <left style="thin"/>
@@ -285,7 +314,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -317,16 +346,37 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -335,10 +385,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="148320" y="131761"/>
-          <a:ext cx="2071801" cy="690481"/>
+          <a:ext cx="2071801" cy="690482"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:ln w="12065">
@@ -751,7 +801,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" showGridLines="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,30 +867,30 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
-        <v>42736</v>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>16</v>
@@ -849,10 +899,10 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -865,106 +915,106 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>26</v>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="12"/>
       <c r="F15" s="7"/>
     </row>
@@ -1073,49 +1123,49 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" ht="16.25" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" ht="16.25" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="27">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" ht="16.25" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" ht="16.25" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" ht="16.25" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
